--- a/assets/excel/import/contoh import.xlsx
+++ b/assets/excel/import/contoh import.xlsx
@@ -14,24 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Ini merupakan contoh import data, bisa dicustom dan mohon disesuaikan dengan kolom yang disediakan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Contoh Data Import ( Silahkan Isi Data Sesuai Kolom Yang Disediakan)</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>iddaerah</t>
-  </si>
-  <si>
-    <t>data 1</t>
-  </si>
-  <si>
-    <t>data 2</t>
-  </si>
-  <si>
-    <t>data 3</t>
+    <t>Nama Daerah</t>
+  </si>
+  <si>
+    <t>Data 1</t>
+  </si>
+  <si>
+    <t>Data 2</t>
+  </si>
+  <si>
+    <t>Data 3</t>
+  </si>
+  <si>
+    <t>Daerah 1</t>
+  </si>
+  <si>
+    <t>Daerah 2</t>
+  </si>
+  <si>
+    <t>Daerah 3</t>
+  </si>
+  <si>
+    <t>Daerah 4</t>
+  </si>
+  <si>
+    <t>Daerah 5</t>
+  </si>
+  <si>
+    <t>Daerah 6</t>
+  </si>
+  <si>
+    <t>Daerah 7</t>
+  </si>
+  <si>
+    <t>Daerah 8</t>
+  </si>
+  <si>
+    <t>Daerah 9</t>
+  </si>
+  <si>
+    <t>Daerah 10</t>
+  </si>
+  <si>
+    <t>Daerah 11</t>
+  </si>
+  <si>
+    <t>Daerah 12</t>
+  </si>
+  <si>
+    <t>Daerah 13</t>
+  </si>
+  <si>
+    <t>Daerah 14</t>
+  </si>
+  <si>
+    <t>Daerah 15</t>
   </si>
 </sst>
 </file>
@@ -39,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,12 +99,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -67,8 +141,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,78 +165,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,16 +196,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,8 +218,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,19 +269,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,25 +407,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,121 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,11 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,10 +510,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -477,17 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,8 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,9 +567,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,15 +580,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,138 +598,144 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,254 +1063,306 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="11.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="31.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="27.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="26.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.3213</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.23402</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.78123</v>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.73821783</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.2634723</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.32478234</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.311234</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.8565</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.98131</v>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.2313781</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.34239849</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5.472834234</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.2343</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.785435</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.38129</v>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.5435435</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.12389213</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.713812312</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>132.32131</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.89435</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.78324</v>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.312893</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.23478234</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.5454554358</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.234234</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.62374</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.748324</v>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.32983921</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.42374238</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.312381293</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.566534</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.74583</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.87423</v>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3.3429234</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.234782348</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6.4578345234</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.5435</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.94823</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.87234</v>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.123123</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.9824982</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.89234923423</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.4234</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.84923</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.84239</v>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5.3248239</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.78543545</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.87825435</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.46546</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.4234</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.17328</v>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.312899</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.23478234</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6.2374823842</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.4234</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.478234</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.2435</v>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.23427384</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.239482394</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.23478234</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.5635</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.123</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.78234</v>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.382193</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8.423748327</v>
+      </c>
+      <c r="E15" s="5">
+        <v>6.54385345</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.54325</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.89423</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.38724</v>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.324234</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.23487234</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.23478234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5.342394</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6.25482934</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4.042342384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.543589345</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.423423894</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.23482347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.23423</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6.475843534</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.23423886</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
